--- a/TestData/StoreDataTestScenarios.xlsx
+++ b/TestData/StoreDataTestScenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>MISSING_shipDate</t>
+  </si>
+  <si>
+    <t>IsEnabled</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -392,27 +413,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -420,92 +442,136 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
         <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
